--- a/GestorReceitas/Novembro/relatorioMensal_novembro.xlsx
+++ b/GestorReceitas/Novembro/relatorioMensal_novembro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Novembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3FEA9-C1C1-483D-B34D-6832D56AFBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3B67F9-6398-4B77-9E46-239C1BA20875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1465,7 +1465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1506,12 +1506,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1557,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1579,1179 +1573,1170 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
+  <dxfs count="145">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -3052,20 +3037,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="L131" sqref="L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15" hidden="1" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3120,8 +3103,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3150,7 +3133,8 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6">
-        <v>25</v>
+        <f>25+4</f>
+        <v>29</v>
       </c>
       <c r="L2" s="6">
         <v>0</v>
@@ -3160,7 +3144,7 @@
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="N2:N145" si="0">L2 + K2   +  M2 - (G2 + H2 + I2 + J2)</f>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>21</v>
@@ -3384,8 +3368,8 @@
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3417,15 +3401,15 @@
         <v>0</v>
       </c>
       <c r="L7" s="6">
-        <f>44.5-11-7.5</f>
-        <v>26</v>
+        <f>44.5-11-7.5+4</f>
+        <v>30</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>38</v>
@@ -3478,7 +3462,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3725,8 +3709,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -3758,15 +3742,15 @@
         <v>0</v>
       </c>
       <c r="L14" s="6">
-        <f>44.5-11+7.5</f>
-        <v>41</v>
+        <f>44.5-11+7.5+4</f>
+        <v>45</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>38</v>
@@ -4020,7 +4004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
@@ -4216,7 +4200,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
@@ -4660,8 +4644,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -4695,15 +4679,15 @@
         <v>0</v>
       </c>
       <c r="L33" s="6">
-        <f>79-6-18-30</f>
-        <v>25</v>
+        <f>79-6-18-30+16</f>
+        <v>41</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="1"/>
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="4" t="s">
         <v>111</v>
@@ -4770,7 +4754,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>115</v>
       </c>
@@ -4908,7 +4892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>123</v>
       </c>
@@ -5306,8 +5290,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -5556,8 +5540,8 @@
       </c>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5589,15 +5573,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="6">
-        <f>80-50-30</f>
-        <v>0</v>
+        <f>80-50-30+50</f>
+        <v>50</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
       </c>
       <c r="N51" s="1">
         <f t="shared" si="2"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>164</v>
@@ -6068,8 +6052,8 @@
         <v>451</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+    <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -6101,15 +6085,15 @@
         <v>0</v>
       </c>
       <c r="L61" s="6">
-        <f>67+2</f>
-        <v>69</v>
+        <f>67+2+4</f>
+        <v>73</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="4" t="s">
         <v>181</v>
@@ -6480,8 +6464,8 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -6513,15 +6497,15 @@
         <v>0</v>
       </c>
       <c r="L69" s="6">
-        <f>49-49</f>
-        <v>0</v>
+        <f>49-49+55</f>
+        <v>55</v>
       </c>
       <c r="M69" s="1">
         <v>0</v>
       </c>
       <c r="N69" s="1">
         <f t="shared" si="2"/>
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="4" t="s">
         <v>214</v>
@@ -6577,7 +6561,7 @@
       </c>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -6672,7 +6656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>223</v>
       </c>
@@ -6716,7 +6700,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>226</v>
       </c>
@@ -6808,7 +6792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>234</v>
       </c>
@@ -7148,7 +7132,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>251</v>
       </c>
@@ -7181,15 +7165,15 @@
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f>45-45</f>
-        <v>0</v>
+        <f>45-45+45</f>
+        <v>45</v>
       </c>
       <c r="M83" s="1">
         <v>0</v>
       </c>
       <c r="N83" s="1">
         <f t="shared" si="3"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="4" t="s">
         <v>253</v>
@@ -7699,7 +7683,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>280</v>
       </c>
@@ -7732,15 +7716,15 @@
         <v>0</v>
       </c>
       <c r="L94" s="6">
-        <f>36-6-15</f>
-        <v>15</v>
+        <f>36-6-15+4</f>
+        <v>19</v>
       </c>
       <c r="M94" s="1">
         <v>0</v>
       </c>
       <c r="N94" s="1">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="4" t="s">
         <v>282</v>
@@ -7749,7 +7733,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>283</v>
       </c>
@@ -7782,14 +7766,14 @@
         <v>0</v>
       </c>
       <c r="L95" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M95" s="1">
         <v>12</v>
       </c>
       <c r="N95" s="1">
         <f t="shared" si="3"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Q95" s="4" t="s">
         <v>285</v>
@@ -7851,7 +7835,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>289</v>
       </c>
@@ -8010,7 +7994,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>298</v>
       </c>
@@ -8261,8 +8245,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
         <v>313</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -8296,15 +8280,15 @@
         <v>0</v>
       </c>
       <c r="L105" s="6">
-        <f>41-8-8</f>
-        <v>25</v>
+        <f>41-8-8+18</f>
+        <v>43</v>
       </c>
       <c r="M105" s="1">
         <v>0</v>
       </c>
       <c r="N105" s="1">
         <f t="shared" ref="N105:N136" si="4">L105 + K105   +  M105 - (G105 + H105 + I105 + J105)</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="4" t="s">
         <v>315</v>
@@ -8313,8 +8297,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>316</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -8327,13 +8311,13 @@
         <v>317</v>
       </c>
       <c r="E106" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F106" s="4">
         <v>0</v>
       </c>
       <c r="G106" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H106" s="6">
         <v>0</v>
@@ -8345,8 +8329,8 @@
         <v>25</v>
       </c>
       <c r="K106" s="6">
-        <f>55.5-19-11.5</f>
-        <v>25</v>
+        <f>55.5-19-11.5+15</f>
+        <v>40</v>
       </c>
       <c r="L106" s="6">
         <v>0</v>
@@ -8356,7 +8340,7 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" si="4"/>
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="4" t="s">
         <v>318</v>
@@ -8568,7 +8552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>330</v>
       </c>
@@ -8663,7 +8647,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>336</v>
       </c>
@@ -8759,8 +8743,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -8786,8 +8770,8 @@
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6">
-        <f>65-65</f>
-        <v>0</v>
+        <f>65-65+65</f>
+        <v>65</v>
       </c>
       <c r="L115" s="6">
         <v>0</v>
@@ -8797,7 +8781,7 @@
       </c>
       <c r="N115" s="1">
         <f t="shared" si="4"/>
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="4" t="s">
         <v>344</v>
@@ -8854,8 +8838,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>348</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -8887,21 +8871,21 @@
         <v>0</v>
       </c>
       <c r="L117" s="6">
-        <f>17-15-2</f>
-        <v>0</v>
+        <f>17-15-2+15</f>
+        <v>15</v>
       </c>
       <c r="M117" s="1">
         <v>0</v>
       </c>
       <c r="N117" s="1">
         <f t="shared" si="4"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>351</v>
       </c>
@@ -9201,8 +9185,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
+    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
         <v>369</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -9234,15 +9218,15 @@
         <v>0</v>
       </c>
       <c r="L124" s="6">
-        <f>4-4</f>
-        <v>0</v>
+        <f>4-4+45</f>
+        <v>45</v>
       </c>
       <c r="M124" s="1">
         <v>0</v>
       </c>
       <c r="N124" s="1">
         <f t="shared" si="4"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="4" t="s">
         <v>371</v>
@@ -9353,8 +9337,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>378</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -9386,15 +9370,15 @@
         <v>0</v>
       </c>
       <c r="L127" s="6">
-        <f>51-6</f>
-        <v>45</v>
+        <f>51-6+12</f>
+        <v>57</v>
       </c>
       <c r="M127" s="1">
         <v>0</v>
       </c>
       <c r="N127" s="1">
         <f t="shared" si="4"/>
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="4" t="s">
         <v>380</v>
@@ -9498,8 +9482,8 @@
         <v>386</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>387</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -9533,15 +9517,15 @@
         <v>0</v>
       </c>
       <c r="L130" s="6">
-        <f>40-15</f>
-        <v>25</v>
+        <f>40</f>
+        <v>40</v>
       </c>
       <c r="M130" s="1">
         <v>0</v>
       </c>
       <c r="N130" s="1">
         <f t="shared" si="4"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="4" t="s">
         <v>389</v>
@@ -9894,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" ref="N137:N168" si="5">L137 + K137   +  M137 - (G137 + H137 + I137 + J137)</f>
+        <f t="shared" ref="N137:N143" si="5">L137 + K137   +  M137 - (G137 + H137 + I137 + J137)</f>
         <v>0</v>
       </c>
       <c r="O137" s="4" t="s">
@@ -10108,7 +10092,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>421</v>
       </c>
@@ -10287,11 +10271,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R145" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <colorFilter dxfId="145" cellColor="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R145" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="N2:N145">
     <cfRule type="cellIs" dxfId="144" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>

--- a/GestorReceitas/Novembro/relatorioMensal_novembro.xlsx
+++ b/GestorReceitas/Novembro/relatorioMensal_novembro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Novembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D772CB-E417-44C4-B176-8A7B6D82A0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD1A43D-9E32-4C85-B6F6-D64C209B9BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="12840" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relatorioMensal" sheetId="1" r:id="rId1"/>
@@ -3405,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M97" sqref="A97:M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7194,7 +7194,7 @@
       </c>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -7224,14 +7224,15 @@
         <v>0</v>
       </c>
       <c r="L74" s="5">
-        <v>0</v>
+        <f>37.5-22.5</f>
+        <v>15</v>
       </c>
       <c r="M74" s="7">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="N74" s="7">
         <f t="shared" si="1"/>
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3" t="s">
@@ -8387,7 +8388,7 @@
         <v>8</v>
       </c>
       <c r="I97" s="6">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5">
@@ -8402,7 +8403,7 @@
       </c>
       <c r="N97" s="7">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-15.5</v>
       </c>
       <c r="P97" s="3"/>
       <c r="Q97" s="3" t="s">
@@ -8523,7 +8524,7 @@
       </c>
     </row>
     <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -8554,8 +8555,8 @@
         <v>25</v>
       </c>
       <c r="K100" s="5">
-        <f>40-15</f>
-        <v>25</v>
+        <f>40-15+15</f>
+        <v>40</v>
       </c>
       <c r="L100" s="5">
         <v>0</v>
@@ -8565,7 +8566,7 @@
       </c>
       <c r="N100" s="7">
         <f t="shared" si="1"/>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3" t="s">
@@ -9206,7 +9207,7 @@
       </c>
     </row>
     <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -9237,8 +9238,8 @@
         <v>25</v>
       </c>
       <c r="K113" s="5">
-        <f>70-45</f>
-        <v>25</v>
+        <f>70-45+45</f>
+        <v>70</v>
       </c>
       <c r="L113" s="5">
         <v>0</v>
@@ -9248,7 +9249,7 @@
       </c>
       <c r="N113" s="7">
         <f t="shared" si="1"/>
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="P113" s="3"/>
       <c r="Q113" s="3" t="s">
